--- a/Code/Results/Cases/Case_3_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013231752171859</v>
+        <v>1.037409208979866</v>
       </c>
       <c r="D2">
-        <v>1.032503313393463</v>
+        <v>1.046455098560166</v>
       </c>
       <c r="E2">
-        <v>1.027402820203295</v>
+        <v>1.046329947878131</v>
       </c>
       <c r="F2">
-        <v>1.037190498940223</v>
+        <v>1.057534494387406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048291813112342</v>
+        <v>1.039860442664732</v>
       </c>
       <c r="J2">
-        <v>1.035023780061815</v>
+        <v>1.042512237786595</v>
       </c>
       <c r="K2">
-        <v>1.043527662017054</v>
+        <v>1.049220486956129</v>
       </c>
       <c r="L2">
-        <v>1.038493147569749</v>
+        <v>1.049095686882283</v>
       </c>
       <c r="M2">
-        <v>1.04815492991947</v>
+        <v>1.060269200266895</v>
       </c>
       <c r="N2">
-        <v>1.015503830453609</v>
+        <v>1.018110133954396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016869712995404</v>
+        <v>1.038191488801445</v>
       </c>
       <c r="D3">
-        <v>1.035267498062213</v>
+        <v>1.047077638404125</v>
       </c>
       <c r="E3">
-        <v>1.030401453146862</v>
+        <v>1.04702604286292</v>
       </c>
       <c r="F3">
-        <v>1.040521005042041</v>
+        <v>1.058312061925468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049245807631026</v>
+        <v>1.040023259400307</v>
       </c>
       <c r="J3">
-        <v>1.036910823411883</v>
+        <v>1.042939725194611</v>
       </c>
       <c r="K3">
-        <v>1.045468166754057</v>
+        <v>1.049655164304568</v>
       </c>
       <c r="L3">
-        <v>1.04065957530065</v>
+        <v>1.049603702907099</v>
       </c>
       <c r="M3">
-        <v>1.050660391198238</v>
+        <v>1.060860715220925</v>
       </c>
       <c r="N3">
-        <v>1.016138319146802</v>
+        <v>1.018253032722273</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01918363051787</v>
+        <v>1.038698447108917</v>
       </c>
       <c r="D4">
-        <v>1.037028693327738</v>
+        <v>1.047481150600414</v>
       </c>
       <c r="E4">
-        <v>1.032314347062995</v>
+        <v>1.04747754360072</v>
       </c>
       <c r="F4">
-        <v>1.042645333034481</v>
+        <v>1.058816409259165</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049844825756822</v>
+        <v>1.040127798568932</v>
       </c>
       <c r="J4">
-        <v>1.038109028979012</v>
+        <v>1.043216415866325</v>
       </c>
       <c r="K4">
-        <v>1.046699847108625</v>
+        <v>1.04993642322223</v>
       </c>
       <c r="L4">
-        <v>1.042037803045835</v>
+        <v>1.04993282513034</v>
       </c>
       <c r="M4">
-        <v>1.052254932212081</v>
+        <v>1.061244010717403</v>
       </c>
       <c r="N4">
-        <v>1.016541094395138</v>
+        <v>1.018345493054696</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020147077438128</v>
+        <v>1.038911755016195</v>
       </c>
       <c r="D5">
-        <v>1.037762696940202</v>
+        <v>1.04765094967952</v>
       </c>
       <c r="E5">
-        <v>1.033112138409282</v>
+        <v>1.047667611185007</v>
       </c>
       <c r="F5">
-        <v>1.043531243608198</v>
+        <v>1.059028724136747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050092346788796</v>
+        <v>1.040171551152774</v>
       </c>
       <c r="J5">
-        <v>1.038607411754762</v>
+        <v>1.04333275386415</v>
       </c>
       <c r="K5">
-        <v>1.047212034672854</v>
+        <v>1.050054661470816</v>
       </c>
       <c r="L5">
-        <v>1.042611696180789</v>
+        <v>1.050071282741632</v>
       </c>
       <c r="M5">
-        <v>1.052919049627058</v>
+        <v>1.061405276989244</v>
       </c>
       <c r="N5">
-        <v>1.016708598667183</v>
+        <v>1.018384361751371</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020308305385049</v>
+        <v>1.038947581006062</v>
       </c>
       <c r="D6">
-        <v>1.037885568475633</v>
+        <v>1.047679469166354</v>
       </c>
       <c r="E6">
-        <v>1.033245721407339</v>
+        <v>1.047699539360404</v>
       </c>
       <c r="F6">
-        <v>1.043679577900234</v>
+        <v>1.059064389519534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050133656128064</v>
+        <v>1.040178885906715</v>
       </c>
       <c r="J6">
-        <v>1.038690782640859</v>
+        <v>1.043352288496982</v>
       </c>
       <c r="K6">
-        <v>1.047297707719857</v>
+        <v>1.050074513974332</v>
       </c>
       <c r="L6">
-        <v>1.042707735864717</v>
+        <v>1.050094535886817</v>
       </c>
       <c r="M6">
-        <v>1.053030197067228</v>
+        <v>1.061432361808701</v>
       </c>
       <c r="N6">
-        <v>1.016736617648822</v>
+        <v>1.018390887866738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019196540425285</v>
+        <v>1.038701296624404</v>
       </c>
       <c r="D7">
-        <v>1.037038526069168</v>
+        <v>1.047483418827802</v>
       </c>
       <c r="E7">
-        <v>1.032325032066456</v>
+        <v>1.047480082287118</v>
       </c>
       <c r="F7">
-        <v>1.042657198475514</v>
+        <v>1.058819245095004</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049848149973925</v>
+        <v>1.040128383962963</v>
       </c>
       <c r="J7">
-        <v>1.038115709225598</v>
+        <v>1.043217970314326</v>
       </c>
       <c r="K7">
-        <v>1.046706712868843</v>
+        <v>1.04993800314113</v>
       </c>
       <c r="L7">
-        <v>1.042045492923482</v>
+        <v>1.049934674837883</v>
       </c>
       <c r="M7">
-        <v>1.05226383045004</v>
+        <v>1.061246165061226</v>
       </c>
       <c r="N7">
-        <v>1.01654333970371</v>
+        <v>1.01834601242714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014469685878051</v>
+        <v>1.037673423314392</v>
       </c>
       <c r="D8">
-        <v>1.033443258162943</v>
+        <v>1.046665345313646</v>
       </c>
       <c r="E8">
-        <v>1.028422007993782</v>
+        <v>1.046564971428122</v>
       </c>
       <c r="F8">
-        <v>1.038322545390886</v>
+        <v>1.057797025286743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048618048178668</v>
+        <v>1.039915635451246</v>
       </c>
       <c r="J8">
-        <v>1.03566632042462</v>
+        <v>1.042656692238718</v>
       </c>
       <c r="K8">
-        <v>1.044188501269889</v>
+        <v>1.049367388641212</v>
       </c>
       <c r="L8">
-        <v>1.039230270623439</v>
+        <v>1.049267289111674</v>
       </c>
       <c r="M8">
-        <v>1.049007277494294</v>
+        <v>1.060468991420633</v>
       </c>
       <c r="N8">
-        <v>1.015719894917676</v>
+        <v>1.018158427942638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005820555564331</v>
+        <v>1.035868169412326</v>
       </c>
       <c r="D9">
-        <v>1.026890433086441</v>
+        <v>1.045229146914693</v>
       </c>
       <c r="E9">
-        <v>1.021326149282647</v>
+        <v>1.044960797257601</v>
       </c>
       <c r="F9">
-        <v>1.030439592380058</v>
+        <v>1.056005101844934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046307152554206</v>
+        <v>1.039534544325248</v>
       </c>
       <c r="J9">
-        <v>1.031169436122011</v>
+        <v>1.041668304524733</v>
       </c>
       <c r="K9">
-        <v>1.039561793223195</v>
+        <v>1.048361909062666</v>
       </c>
       <c r="L9">
-        <v>1.034082447221113</v>
+        <v>1.048094418196847</v>
       </c>
       <c r="M9">
-        <v>1.043057385217619</v>
+        <v>1.059103772295319</v>
       </c>
       <c r="N9">
-        <v>1.014207386845016</v>
+        <v>1.01782786583959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9998207103937093</v>
+        <v>1.034668810021951</v>
       </c>
       <c r="D10">
-        <v>1.022364667710851</v>
+        <v>1.044275398372027</v>
       </c>
       <c r="E10">
-        <v>1.0164368728036</v>
+        <v>1.043897097142074</v>
       </c>
       <c r="F10">
-        <v>1.025006074832648</v>
+        <v>1.05481691082723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044665375089587</v>
+        <v>1.039276360791081</v>
       </c>
       <c r="J10">
-        <v>1.028041443536284</v>
+        <v>1.041009902431747</v>
       </c>
       <c r="K10">
-        <v>1.03634153027337</v>
+        <v>1.04769168816388</v>
       </c>
       <c r="L10">
-        <v>1.030515563561005</v>
+        <v>1.047314715584601</v>
       </c>
       <c r="M10">
-        <v>1.038938052631458</v>
+        <v>1.058196599026083</v>
       </c>
       <c r="N10">
-        <v>1.01315492490906</v>
+        <v>1.017607511156948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9971628299955285</v>
+        <v>1.034150481390803</v>
       </c>
       <c r="D11">
-        <v>1.02036508477438</v>
+        <v>1.043863321602796</v>
       </c>
       <c r="E11">
-        <v>1.014279298652269</v>
+        <v>1.043437893054589</v>
       </c>
       <c r="F11">
-        <v>1.022607812763547</v>
+        <v>1.054303962966243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043929322346091</v>
+        <v>1.039163596446128</v>
       </c>
       <c r="J11">
-        <v>1.026654116736881</v>
+        <v>1.040724948504851</v>
       </c>
       <c r="K11">
-        <v>1.034912900082813</v>
+        <v>1.047401517221029</v>
       </c>
       <c r="L11">
-        <v>1.028936860517135</v>
+        <v>1.046977640355315</v>
       </c>
       <c r="M11">
-        <v>1.037115611885735</v>
+        <v>1.05780451113282</v>
       </c>
       <c r="N11">
-        <v>1.012688074059101</v>
+        <v>1.017512106188111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9961661735646915</v>
+        <v>1.033958103571638</v>
       </c>
       <c r="D12">
-        <v>1.019616123762562</v>
+        <v>1.043710395614958</v>
       </c>
       <c r="E12">
-        <v>1.013471543341399</v>
+        <v>1.043267534441028</v>
       </c>
       <c r="F12">
-        <v>1.021709864088423</v>
+        <v>1.054113665964449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043652037019534</v>
+        <v>1.039121565927428</v>
       </c>
       <c r="J12">
-        <v>1.026133678764331</v>
+        <v>1.040619126150871</v>
       </c>
       <c r="K12">
-        <v>1.034376918196091</v>
+        <v>1.047293742205929</v>
       </c>
       <c r="L12">
-        <v>1.028345122207666</v>
+        <v>1.04685251854531</v>
       </c>
       <c r="M12">
-        <v>1.036432630704916</v>
+        <v>1.057658982898849</v>
       </c>
       <c r="N12">
-        <v>1.012512933612713</v>
+        <v>1.017476670556374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9963803918574656</v>
+        <v>1.033999362333401</v>
       </c>
       <c r="D13">
-        <v>1.019777064090265</v>
+        <v>1.043743192495481</v>
       </c>
       <c r="E13">
-        <v>1.013645100540216</v>
+        <v>1.043304067394265</v>
       </c>
       <c r="F13">
-        <v>1.021902804465824</v>
+        <v>1.054154474660971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043711693084051</v>
+        <v>1.039130588157134</v>
       </c>
       <c r="J13">
-        <v>1.026245549338283</v>
+        <v>1.040641824376791</v>
       </c>
       <c r="K13">
-        <v>1.034492132118897</v>
+        <v>1.04731685995367</v>
       </c>
       <c r="L13">
-        <v>1.028472296896932</v>
+        <v>1.046879353818884</v>
       </c>
       <c r="M13">
-        <v>1.036579409798867</v>
+        <v>1.057690194161001</v>
       </c>
       <c r="N13">
-        <v>1.012550581164711</v>
+        <v>1.017484271520011</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9970806402417857</v>
+        <v>1.034134576257529</v>
       </c>
       <c r="D14">
-        <v>1.02030330383741</v>
+        <v>1.043850677872569</v>
       </c>
       <c r="E14">
-        <v>1.014212660114944</v>
+        <v>1.043423806857457</v>
       </c>
       <c r="F14">
-        <v>1.022533735167075</v>
+        <v>1.054288228156166</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043906481676692</v>
+        <v>1.039160125140072</v>
       </c>
       <c r="J14">
-        <v>1.026611202768031</v>
+        <v>1.040716200734583</v>
       </c>
       <c r="K14">
-        <v>1.034868705364736</v>
+        <v>1.047392608345093</v>
       </c>
       <c r="L14">
-        <v>1.028888057304379</v>
+        <v>1.046967296046087</v>
       </c>
       <c r="M14">
-        <v>1.03705928111626</v>
+        <v>1.057792479455176</v>
       </c>
       <c r="N14">
-        <v>1.012673632566799</v>
+        <v>1.017509177023552</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975108282642189</v>
+        <v>1.03421790628779</v>
       </c>
       <c r="D15">
-        <v>1.020626705230526</v>
+        <v>1.043916921465288</v>
       </c>
       <c r="E15">
-        <v>1.014561504888007</v>
+        <v>1.043497610214109</v>
       </c>
       <c r="F15">
-        <v>1.022921519046828</v>
+        <v>1.054370669264151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04402597968512</v>
+        <v>1.039178304683589</v>
       </c>
       <c r="J15">
-        <v>1.026835809447656</v>
+        <v>1.040762029450158</v>
       </c>
       <c r="K15">
-        <v>1.035100013363119</v>
+        <v>1.047439280453973</v>
       </c>
       <c r="L15">
-        <v>1.029143507661724</v>
+        <v>1.047021491193816</v>
       </c>
       <c r="M15">
-        <v>1.037354137659558</v>
+        <v>1.057855515521353</v>
       </c>
       <c r="N15">
-        <v>1.012749217358965</v>
+        <v>1.017524522409386</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999958092477087</v>
+        <v>1.034703231064728</v>
       </c>
       <c r="D16">
-        <v>1.022496513256528</v>
+        <v>1.044302765743635</v>
       </c>
       <c r="E16">
-        <v>1.016579189544846</v>
+        <v>1.043927602369637</v>
       </c>
       <c r="F16">
-        <v>1.025164256293577</v>
+        <v>1.054850986270786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04471368582762</v>
+        <v>1.039283824237085</v>
       </c>
       <c r="J16">
-        <v>1.02813280763885</v>
+        <v>1.041028816924349</v>
       </c>
       <c r="K16">
-        <v>1.036435607172526</v>
+        <v>1.047710946807381</v>
       </c>
       <c r="L16">
-        <v>1.030619599368091</v>
+        <v>1.047337097698572</v>
       </c>
       <c r="M16">
-        <v>1.039058166821534</v>
+        <v>1.058222636024826</v>
       </c>
       <c r="N16">
-        <v>1.013185668810016</v>
+        <v>1.01761384312606</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001538256860687</v>
+        <v>1.035007932115551</v>
       </c>
       <c r="D17">
-        <v>1.023658552198557</v>
+        <v>1.044545038784089</v>
       </c>
       <c r="E17">
-        <v>1.017833815583515</v>
+        <v>1.044197697424343</v>
       </c>
       <c r="F17">
-        <v>1.026558681066045</v>
+        <v>1.055152692156601</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04513826022639</v>
+        <v>1.039349754945579</v>
       </c>
       <c r="J17">
-        <v>1.028937450199383</v>
+        <v>1.041196203741126</v>
       </c>
       <c r="K17">
-        <v>1.037264098894519</v>
+        <v>1.047881367478722</v>
       </c>
       <c r="L17">
-        <v>1.031536215592422</v>
+        <v>1.047535215357448</v>
       </c>
       <c r="M17">
-        <v>1.040116531581463</v>
+        <v>1.058453116209887</v>
       </c>
       <c r="N17">
-        <v>1.01345642304965</v>
+        <v>1.01766987470597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002432188399058</v>
+        <v>1.035185755618635</v>
       </c>
       <c r="D18">
-        <v>1.02433251672976</v>
+        <v>1.044686439503683</v>
       </c>
       <c r="E18">
-        <v>1.01856172928271</v>
+        <v>1.044355372797227</v>
       </c>
       <c r="F18">
-        <v>1.027367654385566</v>
+        <v>1.055328821174423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045383487750218</v>
+        <v>1.039388117648593</v>
       </c>
       <c r="J18">
-        <v>1.029403624437966</v>
+        <v>1.041293850910411</v>
       </c>
       <c r="K18">
-        <v>1.037744053657046</v>
+        <v>1.04798077464691</v>
       </c>
       <c r="L18">
-        <v>1.032067574505699</v>
+        <v>1.047650826139112</v>
       </c>
       <c r="M18">
-        <v>1.040730135522706</v>
+        <v>1.058587621143604</v>
       </c>
       <c r="N18">
-        <v>1.013613279911271</v>
+        <v>1.017702557915318</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002736032123163</v>
+        <v>1.035246405151392</v>
       </c>
       <c r="D19">
-        <v>1.024561677933691</v>
+        <v>1.044734668181138</v>
       </c>
       <c r="E19">
-        <v>1.018809276994132</v>
+        <v>1.044409158603032</v>
       </c>
       <c r="F19">
-        <v>1.027642760529228</v>
+        <v>1.055388901834312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045466696662372</v>
+        <v>1.039401182444983</v>
       </c>
       <c r="J19">
-        <v>1.029562047171644</v>
+        <v>1.041327148279788</v>
       </c>
       <c r="K19">
-        <v>1.03790715307264</v>
+        <v>1.048014670499427</v>
       </c>
       <c r="L19">
-        <v>1.03224820230022</v>
+        <v>1.047690255215774</v>
       </c>
       <c r="M19">
-        <v>1.040938733882923</v>
+        <v>1.058633495622282</v>
       </c>
       <c r="N19">
-        <v>1.013666584393866</v>
+        <v>1.01771370218847</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001373364620431</v>
+        <v>1.034975230577027</v>
       </c>
       <c r="D20">
-        <v>1.023534274541733</v>
+        <v>1.044519036170782</v>
       </c>
       <c r="E20">
-        <v>1.017699610077237</v>
+        <v>1.044168704957483</v>
       </c>
       <c r="F20">
-        <v>1.026409526650654</v>
+        <v>1.05512030653384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04509295840835</v>
+        <v>1.039342690876594</v>
       </c>
       <c r="J20">
-        <v>1.028851447825321</v>
+        <v>1.041178243336968</v>
       </c>
       <c r="K20">
-        <v>1.037175551202342</v>
+        <v>1.04786308256261</v>
       </c>
       <c r="L20">
-        <v>1.031438212811211</v>
+        <v>1.047513953806543</v>
       </c>
       <c r="M20">
-        <v>1.040003365665308</v>
+        <v>1.058428380640086</v>
       </c>
       <c r="N20">
-        <v>1.013427484725694</v>
+        <v>1.017663862947153</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9968746973963246</v>
+        <v>1.034094754900904</v>
       </c>
       <c r="D21">
-        <v>1.020148513169516</v>
+        <v>1.043819022291071</v>
       </c>
       <c r="E21">
-        <v>1.014045704978754</v>
+        <v>1.04338854074943</v>
       </c>
       <c r="F21">
-        <v>1.022348140949718</v>
+        <v>1.054248834588973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043849229329675</v>
+        <v>1.039151431226205</v>
       </c>
       <c r="J21">
-        <v>1.026503669880165</v>
+        <v>1.040694298126235</v>
       </c>
       <c r="K21">
-        <v>1.034757962432214</v>
+        <v>1.047370302115561</v>
       </c>
       <c r="L21">
-        <v>1.028765775204562</v>
+        <v>1.046941396949432</v>
       </c>
       <c r="M21">
-        <v>1.036918139724499</v>
+        <v>1.057762355915414</v>
       </c>
       <c r="N21">
-        <v>1.012637445279944</v>
+        <v>1.017501842913616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9939915991872263</v>
+        <v>1.03354204827666</v>
       </c>
       <c r="D22">
-        <v>1.017983599881862</v>
+        <v>1.043379693326286</v>
       </c>
       <c r="E22">
-        <v>1.011711555442716</v>
+        <v>1.042899237932414</v>
       </c>
       <c r="F22">
-        <v>1.019753195760036</v>
+        <v>1.053702264469662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043044728755756</v>
+        <v>1.039030341198777</v>
       </c>
       <c r="J22">
-        <v>1.024997791079875</v>
+        <v>1.040390151832056</v>
       </c>
       <c r="K22">
-        <v>1.033207022614941</v>
+        <v>1.047060515012233</v>
       </c>
       <c r="L22">
-        <v>1.02705452042081</v>
+        <v>1.046581888394071</v>
       </c>
       <c r="M22">
-        <v>1.034943238242881</v>
+        <v>1.057344240951163</v>
       </c>
       <c r="N22">
-        <v>1.012130667884408</v>
+        <v>1.017399986436181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9955252998365569</v>
+        <v>1.033834964116903</v>
       </c>
       <c r="D23">
-        <v>1.019134768891075</v>
+        <v>1.043612513637865</v>
       </c>
       <c r="E23">
-        <v>1.012952508052168</v>
+        <v>1.043158510506601</v>
       </c>
       <c r="F23">
-        <v>1.021132849188544</v>
+        <v>1.053991882057767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043473380332877</v>
+        <v>1.039094612435052</v>
       </c>
       <c r="J23">
-        <v>1.025798968127233</v>
+        <v>1.040551372813399</v>
       </c>
       <c r="K23">
-        <v>1.034032197786993</v>
+        <v>1.047224734386289</v>
       </c>
       <c r="L23">
-        <v>1.027964694539022</v>
+        <v>1.046772424573593</v>
       </c>
       <c r="M23">
-        <v>1.035993575847384</v>
+        <v>1.057565830198769</v>
       </c>
       <c r="N23">
-        <v>1.012400293295245</v>
+        <v>1.017453981179451</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001447890073102</v>
+        <v>1.03499000669665</v>
       </c>
       <c r="D24">
-        <v>1.023590442094644</v>
+        <v>1.044530785364074</v>
       </c>
       <c r="E24">
-        <v>1.01776026376746</v>
+        <v>1.044181804993099</v>
       </c>
       <c r="F24">
-        <v>1.026476936598317</v>
+        <v>1.055134939742427</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04511343581965</v>
+        <v>1.0393458831145</v>
       </c>
       <c r="J24">
-        <v>1.028890318349182</v>
+        <v>1.041186358829694</v>
       </c>
       <c r="K24">
-        <v>1.037215572248617</v>
+        <v>1.047871344717987</v>
       </c>
       <c r="L24">
-        <v>1.031482506196106</v>
+        <v>1.047523560825435</v>
       </c>
       <c r="M24">
-        <v>1.040054511958947</v>
+        <v>1.058439557364114</v>
       </c>
       <c r="N24">
-        <v>1.013440564009566</v>
+        <v>1.017666579399363</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008096332810454</v>
+        <v>1.03633414903054</v>
       </c>
       <c r="D25">
-        <v>1.028611368984539</v>
+        <v>1.045599792165277</v>
       </c>
       <c r="E25">
-        <v>1.023187658872264</v>
+        <v>1.0453745103771</v>
       </c>
       <c r="F25">
-        <v>1.032507895082</v>
+        <v>1.056467234319994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046922038629375</v>
+        <v>1.039633795592852</v>
       </c>
       <c r="J25">
-        <v>1.032354261758312</v>
+        <v>1.041923740252614</v>
       </c>
       <c r="K25">
-        <v>1.04078119209899</v>
+        <v>1.048621838658971</v>
       </c>
       <c r="L25">
-        <v>1.03543637261729</v>
+        <v>1.048397250615456</v>
       </c>
       <c r="M25">
-        <v>1.04462168891606</v>
+        <v>1.059456198127276</v>
       </c>
       <c r="N25">
-        <v>1.014605971188942</v>
+        <v>1.01791332270132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037409208979866</v>
+        <v>1.013231752171859</v>
       </c>
       <c r="D2">
-        <v>1.046455098560166</v>
+        <v>1.032503313393463</v>
       </c>
       <c r="E2">
-        <v>1.046329947878131</v>
+        <v>1.027402820203295</v>
       </c>
       <c r="F2">
-        <v>1.057534494387406</v>
+        <v>1.037190498940223</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039860442664732</v>
+        <v>1.048291813112342</v>
       </c>
       <c r="J2">
-        <v>1.042512237786595</v>
+        <v>1.035023780061815</v>
       </c>
       <c r="K2">
-        <v>1.049220486956129</v>
+        <v>1.043527662017054</v>
       </c>
       <c r="L2">
-        <v>1.049095686882283</v>
+        <v>1.038493147569749</v>
       </c>
       <c r="M2">
-        <v>1.060269200266895</v>
+        <v>1.04815492991947</v>
       </c>
       <c r="N2">
-        <v>1.018110133954396</v>
+        <v>1.015503830453609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038191488801445</v>
+        <v>1.016869712995404</v>
       </c>
       <c r="D3">
-        <v>1.047077638404125</v>
+        <v>1.035267498062213</v>
       </c>
       <c r="E3">
-        <v>1.04702604286292</v>
+        <v>1.030401453146863</v>
       </c>
       <c r="F3">
-        <v>1.058312061925468</v>
+        <v>1.040521005042041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040023259400307</v>
+        <v>1.049245807631026</v>
       </c>
       <c r="J3">
-        <v>1.042939725194611</v>
+        <v>1.036910823411884</v>
       </c>
       <c r="K3">
-        <v>1.049655164304568</v>
+        <v>1.045468166754057</v>
       </c>
       <c r="L3">
-        <v>1.049603702907099</v>
+        <v>1.04065957530065</v>
       </c>
       <c r="M3">
-        <v>1.060860715220925</v>
+        <v>1.050660391198238</v>
       </c>
       <c r="N3">
-        <v>1.018253032722273</v>
+        <v>1.016138319146803</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038698447108917</v>
+        <v>1.019183630517871</v>
       </c>
       <c r="D4">
-        <v>1.047481150600414</v>
+        <v>1.037028693327738</v>
       </c>
       <c r="E4">
-        <v>1.04747754360072</v>
+        <v>1.032314347062995</v>
       </c>
       <c r="F4">
-        <v>1.058816409259165</v>
+        <v>1.042645333034482</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040127798568932</v>
+        <v>1.049844825756823</v>
       </c>
       <c r="J4">
-        <v>1.043216415866325</v>
+        <v>1.038109028979012</v>
       </c>
       <c r="K4">
-        <v>1.04993642322223</v>
+        <v>1.046699847108626</v>
       </c>
       <c r="L4">
-        <v>1.04993282513034</v>
+        <v>1.042037803045835</v>
       </c>
       <c r="M4">
-        <v>1.061244010717403</v>
+        <v>1.052254932212081</v>
       </c>
       <c r="N4">
-        <v>1.018345493054696</v>
+        <v>1.016541094395139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038911755016195</v>
+        <v>1.020147077438128</v>
       </c>
       <c r="D5">
-        <v>1.04765094967952</v>
+        <v>1.037762696940202</v>
       </c>
       <c r="E5">
-        <v>1.047667611185007</v>
+        <v>1.033112138409282</v>
       </c>
       <c r="F5">
-        <v>1.059028724136747</v>
+        <v>1.043531243608198</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040171551152774</v>
+        <v>1.050092346788796</v>
       </c>
       <c r="J5">
-        <v>1.04333275386415</v>
+        <v>1.038607411754762</v>
       </c>
       <c r="K5">
-        <v>1.050054661470816</v>
+        <v>1.047212034672853</v>
       </c>
       <c r="L5">
-        <v>1.050071282741632</v>
+        <v>1.04261169618079</v>
       </c>
       <c r="M5">
-        <v>1.061405276989244</v>
+        <v>1.052919049627059</v>
       </c>
       <c r="N5">
-        <v>1.018384361751371</v>
+        <v>1.016708598667183</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038947581006062</v>
+        <v>1.020308305385048</v>
       </c>
       <c r="D6">
-        <v>1.047679469166354</v>
+        <v>1.037885568475632</v>
       </c>
       <c r="E6">
-        <v>1.047699539360404</v>
+        <v>1.033245721407338</v>
       </c>
       <c r="F6">
-        <v>1.059064389519534</v>
+        <v>1.043679577900234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040178885906715</v>
+        <v>1.050133656128063</v>
       </c>
       <c r="J6">
-        <v>1.043352288496982</v>
+        <v>1.038690782640859</v>
       </c>
       <c r="K6">
-        <v>1.050074513974332</v>
+        <v>1.047297707719856</v>
       </c>
       <c r="L6">
-        <v>1.050094535886817</v>
+        <v>1.042707735864716</v>
       </c>
       <c r="M6">
-        <v>1.061432361808701</v>
+        <v>1.053030197067228</v>
       </c>
       <c r="N6">
-        <v>1.018390887866738</v>
+        <v>1.016736617648822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038701296624404</v>
+        <v>1.019196540425285</v>
       </c>
       <c r="D7">
-        <v>1.047483418827802</v>
+        <v>1.037038526069168</v>
       </c>
       <c r="E7">
-        <v>1.047480082287118</v>
+        <v>1.032325032066456</v>
       </c>
       <c r="F7">
-        <v>1.058819245095004</v>
+        <v>1.042657198475514</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040128383962963</v>
+        <v>1.049848149973925</v>
       </c>
       <c r="J7">
-        <v>1.043217970314326</v>
+        <v>1.038115709225597</v>
       </c>
       <c r="K7">
-        <v>1.04993800314113</v>
+        <v>1.046706712868843</v>
       </c>
       <c r="L7">
-        <v>1.049934674837883</v>
+        <v>1.042045492923482</v>
       </c>
       <c r="M7">
-        <v>1.061246165061226</v>
+        <v>1.05226383045004</v>
       </c>
       <c r="N7">
-        <v>1.01834601242714</v>
+        <v>1.01654333970371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037673423314392</v>
+        <v>1.01446968587805</v>
       </c>
       <c r="D8">
-        <v>1.046665345313646</v>
+        <v>1.033443258162942</v>
       </c>
       <c r="E8">
-        <v>1.046564971428122</v>
+        <v>1.02842200799378</v>
       </c>
       <c r="F8">
-        <v>1.057797025286743</v>
+        <v>1.038322545390885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039915635451246</v>
+        <v>1.048618048178667</v>
       </c>
       <c r="J8">
-        <v>1.042656692238718</v>
+        <v>1.03566632042462</v>
       </c>
       <c r="K8">
-        <v>1.049367388641212</v>
+        <v>1.044188501269889</v>
       </c>
       <c r="L8">
-        <v>1.049267289111674</v>
+        <v>1.039230270623438</v>
       </c>
       <c r="M8">
-        <v>1.060468991420633</v>
+        <v>1.049007277494293</v>
       </c>
       <c r="N8">
-        <v>1.018158427942638</v>
+        <v>1.015719894917676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035868169412326</v>
+        <v>1.005820555564331</v>
       </c>
       <c r="D9">
-        <v>1.045229146914693</v>
+        <v>1.02689043308644</v>
       </c>
       <c r="E9">
-        <v>1.044960797257601</v>
+        <v>1.021326149282646</v>
       </c>
       <c r="F9">
-        <v>1.056005101844934</v>
+        <v>1.030439592380057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039534544325248</v>
+        <v>1.046307152554206</v>
       </c>
       <c r="J9">
-        <v>1.041668304524733</v>
+        <v>1.031169436122011</v>
       </c>
       <c r="K9">
-        <v>1.048361909062666</v>
+        <v>1.039561793223194</v>
       </c>
       <c r="L9">
-        <v>1.048094418196847</v>
+        <v>1.034082447221113</v>
       </c>
       <c r="M9">
-        <v>1.059103772295319</v>
+        <v>1.043057385217618</v>
       </c>
       <c r="N9">
-        <v>1.01782786583959</v>
+        <v>1.014207386845016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034668810021951</v>
+        <v>0.999820710393709</v>
       </c>
       <c r="D10">
-        <v>1.044275398372027</v>
+        <v>1.022364667710851</v>
       </c>
       <c r="E10">
-        <v>1.043897097142074</v>
+        <v>1.016436872803599</v>
       </c>
       <c r="F10">
-        <v>1.05481691082723</v>
+        <v>1.025006074832647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039276360791081</v>
+        <v>1.044665375089587</v>
       </c>
       <c r="J10">
-        <v>1.041009902431747</v>
+        <v>1.028041443536283</v>
       </c>
       <c r="K10">
-        <v>1.04769168816388</v>
+        <v>1.03634153027337</v>
       </c>
       <c r="L10">
-        <v>1.047314715584601</v>
+        <v>1.030515563561005</v>
       </c>
       <c r="M10">
-        <v>1.058196599026083</v>
+        <v>1.038938052631457</v>
       </c>
       <c r="N10">
-        <v>1.017607511156948</v>
+        <v>1.01315492490906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034150481390803</v>
+        <v>0.9971628299955276</v>
       </c>
       <c r="D11">
-        <v>1.043863321602796</v>
+        <v>1.020365084774379</v>
       </c>
       <c r="E11">
-        <v>1.043437893054589</v>
+        <v>1.014279298652268</v>
       </c>
       <c r="F11">
-        <v>1.054303962966243</v>
+        <v>1.022607812763546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039163596446128</v>
+        <v>1.043929322346091</v>
       </c>
       <c r="J11">
-        <v>1.040724948504851</v>
+        <v>1.02665411673688</v>
       </c>
       <c r="K11">
-        <v>1.047401517221029</v>
+        <v>1.034912900082811</v>
       </c>
       <c r="L11">
-        <v>1.046977640355315</v>
+        <v>1.028936860517134</v>
       </c>
       <c r="M11">
-        <v>1.05780451113282</v>
+        <v>1.037115611885734</v>
       </c>
       <c r="N11">
-        <v>1.017512106188111</v>
+        <v>1.012688074059101</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033958103571638</v>
+        <v>0.9961661735646908</v>
       </c>
       <c r="D12">
-        <v>1.043710395614958</v>
+        <v>1.019616123762561</v>
       </c>
       <c r="E12">
-        <v>1.043267534441028</v>
+        <v>1.013471543341398</v>
       </c>
       <c r="F12">
-        <v>1.054113665964449</v>
+        <v>1.021709864088421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039121565927428</v>
+        <v>1.043652037019534</v>
       </c>
       <c r="J12">
-        <v>1.040619126150871</v>
+        <v>1.026133678764331</v>
       </c>
       <c r="K12">
-        <v>1.047293742205929</v>
+        <v>1.03437691819609</v>
       </c>
       <c r="L12">
-        <v>1.04685251854531</v>
+        <v>1.028345122207665</v>
       </c>
       <c r="M12">
-        <v>1.057658982898849</v>
+        <v>1.036432630704915</v>
       </c>
       <c r="N12">
-        <v>1.017476670556374</v>
+        <v>1.012512933612713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033999362333401</v>
+        <v>0.996380391857466</v>
       </c>
       <c r="D13">
-        <v>1.043743192495481</v>
+        <v>1.019777064090265</v>
       </c>
       <c r="E13">
-        <v>1.043304067394265</v>
+        <v>1.013645100540216</v>
       </c>
       <c r="F13">
-        <v>1.054154474660971</v>
+        <v>1.021902804465824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039130588157134</v>
+        <v>1.043711693084052</v>
       </c>
       <c r="J13">
-        <v>1.040641824376791</v>
+        <v>1.026245549338283</v>
       </c>
       <c r="K13">
-        <v>1.04731685995367</v>
+        <v>1.034492132118897</v>
       </c>
       <c r="L13">
-        <v>1.046879353818884</v>
+        <v>1.028472296896932</v>
       </c>
       <c r="M13">
-        <v>1.057690194161001</v>
+        <v>1.036579409798867</v>
       </c>
       <c r="N13">
-        <v>1.017484271520011</v>
+        <v>1.012550581164711</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034134576257529</v>
+        <v>0.9970806402417851</v>
       </c>
       <c r="D14">
-        <v>1.043850677872569</v>
+        <v>1.02030330383741</v>
       </c>
       <c r="E14">
-        <v>1.043423806857457</v>
+        <v>1.014212660114943</v>
       </c>
       <c r="F14">
-        <v>1.054288228156166</v>
+        <v>1.022533735167074</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039160125140072</v>
+        <v>1.043906481676691</v>
       </c>
       <c r="J14">
-        <v>1.040716200734583</v>
+        <v>1.02661120276803</v>
       </c>
       <c r="K14">
-        <v>1.047392608345093</v>
+        <v>1.034868705364735</v>
       </c>
       <c r="L14">
-        <v>1.046967296046087</v>
+        <v>1.028888057304379</v>
       </c>
       <c r="M14">
-        <v>1.057792479455176</v>
+        <v>1.03705928111626</v>
       </c>
       <c r="N14">
-        <v>1.017509177023552</v>
+        <v>1.012673632566798</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03421790628779</v>
+        <v>0.9975108282642188</v>
       </c>
       <c r="D15">
-        <v>1.043916921465288</v>
+        <v>1.020626705230526</v>
       </c>
       <c r="E15">
-        <v>1.043497610214109</v>
+        <v>1.014561504888007</v>
       </c>
       <c r="F15">
-        <v>1.054370669264151</v>
+        <v>1.022921519046827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039178304683589</v>
+        <v>1.04402597968512</v>
       </c>
       <c r="J15">
-        <v>1.040762029450158</v>
+        <v>1.026835809447656</v>
       </c>
       <c r="K15">
-        <v>1.047439280453973</v>
+        <v>1.035100013363119</v>
       </c>
       <c r="L15">
-        <v>1.047021491193816</v>
+        <v>1.029143507661724</v>
       </c>
       <c r="M15">
-        <v>1.057855515521353</v>
+        <v>1.037354137659558</v>
       </c>
       <c r="N15">
-        <v>1.017524522409386</v>
+        <v>1.012749217358965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034703231064728</v>
+        <v>0.9999958092477086</v>
       </c>
       <c r="D16">
-        <v>1.044302765743635</v>
+        <v>1.022496513256528</v>
       </c>
       <c r="E16">
-        <v>1.043927602369637</v>
+        <v>1.016579189544846</v>
       </c>
       <c r="F16">
-        <v>1.054850986270786</v>
+        <v>1.025164256293577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039283824237085</v>
+        <v>1.04471368582762</v>
       </c>
       <c r="J16">
-        <v>1.041028816924349</v>
+        <v>1.02813280763885</v>
       </c>
       <c r="K16">
-        <v>1.047710946807381</v>
+        <v>1.036435607172526</v>
       </c>
       <c r="L16">
-        <v>1.047337097698572</v>
+        <v>1.030619599368091</v>
       </c>
       <c r="M16">
-        <v>1.058222636024826</v>
+        <v>1.039058166821534</v>
       </c>
       <c r="N16">
-        <v>1.01761384312606</v>
+        <v>1.013185668810016</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035007932115551</v>
+        <v>1.001538256860688</v>
       </c>
       <c r="D17">
-        <v>1.044545038784089</v>
+        <v>1.023658552198557</v>
       </c>
       <c r="E17">
-        <v>1.044197697424343</v>
+        <v>1.017833815583515</v>
       </c>
       <c r="F17">
-        <v>1.055152692156601</v>
+        <v>1.026558681066045</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039349754945579</v>
+        <v>1.04513826022639</v>
       </c>
       <c r="J17">
-        <v>1.041196203741126</v>
+        <v>1.028937450199383</v>
       </c>
       <c r="K17">
-        <v>1.047881367478722</v>
+        <v>1.037264098894519</v>
       </c>
       <c r="L17">
-        <v>1.047535215357448</v>
+        <v>1.031536215592423</v>
       </c>
       <c r="M17">
-        <v>1.058453116209887</v>
+        <v>1.040116531581464</v>
       </c>
       <c r="N17">
-        <v>1.01766987470597</v>
+        <v>1.01345642304965</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035185755618635</v>
+        <v>1.002432188399057</v>
       </c>
       <c r="D18">
-        <v>1.044686439503683</v>
+        <v>1.024332516729759</v>
       </c>
       <c r="E18">
-        <v>1.044355372797227</v>
+        <v>1.018561729282709</v>
       </c>
       <c r="F18">
-        <v>1.055328821174423</v>
+        <v>1.027367654385565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039388117648593</v>
+        <v>1.045383487750217</v>
       </c>
       <c r="J18">
-        <v>1.041293850910411</v>
+        <v>1.029403624437965</v>
       </c>
       <c r="K18">
-        <v>1.04798077464691</v>
+        <v>1.037744053657045</v>
       </c>
       <c r="L18">
-        <v>1.047650826139112</v>
+        <v>1.032067574505698</v>
       </c>
       <c r="M18">
-        <v>1.058587621143604</v>
+        <v>1.040730135522705</v>
       </c>
       <c r="N18">
-        <v>1.017702557915318</v>
+        <v>1.013613279911271</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035246405151392</v>
+        <v>1.002736032123163</v>
       </c>
       <c r="D19">
-        <v>1.044734668181138</v>
+        <v>1.024561677933691</v>
       </c>
       <c r="E19">
-        <v>1.044409158603032</v>
+        <v>1.018809276994132</v>
       </c>
       <c r="F19">
-        <v>1.055388901834312</v>
+        <v>1.027642760529228</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039401182444983</v>
+        <v>1.045466696662371</v>
       </c>
       <c r="J19">
-        <v>1.041327148279788</v>
+        <v>1.029562047171644</v>
       </c>
       <c r="K19">
-        <v>1.048014670499427</v>
+        <v>1.03790715307264</v>
       </c>
       <c r="L19">
-        <v>1.047690255215774</v>
+        <v>1.032248202300221</v>
       </c>
       <c r="M19">
-        <v>1.058633495622282</v>
+        <v>1.040938733882922</v>
       </c>
       <c r="N19">
-        <v>1.01771370218847</v>
+        <v>1.013666584393866</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034975230577027</v>
+        <v>1.001373364620432</v>
       </c>
       <c r="D20">
-        <v>1.044519036170782</v>
+        <v>1.023534274541734</v>
       </c>
       <c r="E20">
-        <v>1.044168704957483</v>
+        <v>1.017699610077237</v>
       </c>
       <c r="F20">
-        <v>1.05512030653384</v>
+        <v>1.026409526650654</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039342690876594</v>
+        <v>1.045092958408351</v>
       </c>
       <c r="J20">
-        <v>1.041178243336968</v>
+        <v>1.028851447825321</v>
       </c>
       <c r="K20">
-        <v>1.04786308256261</v>
+        <v>1.037175551202342</v>
       </c>
       <c r="L20">
-        <v>1.047513953806543</v>
+        <v>1.031438212811212</v>
       </c>
       <c r="M20">
-        <v>1.058428380640086</v>
+        <v>1.040003365665309</v>
       </c>
       <c r="N20">
-        <v>1.017663862947153</v>
+        <v>1.013427484725695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034094754900904</v>
+        <v>0.9968746973963251</v>
       </c>
       <c r="D21">
-        <v>1.043819022291071</v>
+        <v>1.020148513169516</v>
       </c>
       <c r="E21">
-        <v>1.04338854074943</v>
+        <v>1.014045704978754</v>
       </c>
       <c r="F21">
-        <v>1.054248834588973</v>
+        <v>1.022348140949719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039151431226205</v>
+        <v>1.043849229329675</v>
       </c>
       <c r="J21">
-        <v>1.040694298126235</v>
+        <v>1.026503669880166</v>
       </c>
       <c r="K21">
-        <v>1.047370302115561</v>
+        <v>1.034757962432214</v>
       </c>
       <c r="L21">
-        <v>1.046941396949432</v>
+        <v>1.028765775204562</v>
       </c>
       <c r="M21">
-        <v>1.057762355915414</v>
+        <v>1.0369181397245</v>
       </c>
       <c r="N21">
-        <v>1.017501842913616</v>
+        <v>1.012637445279944</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03354204827666</v>
+        <v>0.9939915991872251</v>
       </c>
       <c r="D22">
-        <v>1.043379693326286</v>
+        <v>1.017983599881861</v>
       </c>
       <c r="E22">
-        <v>1.042899237932414</v>
+        <v>1.011711555442715</v>
       </c>
       <c r="F22">
-        <v>1.053702264469662</v>
+        <v>1.019753195760035</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039030341198777</v>
+        <v>1.043044728755756</v>
       </c>
       <c r="J22">
-        <v>1.040390151832056</v>
+        <v>1.024997791079873</v>
       </c>
       <c r="K22">
-        <v>1.047060515012233</v>
+        <v>1.03320702261494</v>
       </c>
       <c r="L22">
-        <v>1.046581888394071</v>
+        <v>1.027054520420809</v>
       </c>
       <c r="M22">
-        <v>1.057344240951163</v>
+        <v>1.03494323824288</v>
       </c>
       <c r="N22">
-        <v>1.017399986436181</v>
+        <v>1.012130667884407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033834964116903</v>
+        <v>0.995525299836557</v>
       </c>
       <c r="D23">
-        <v>1.043612513637865</v>
+        <v>1.019134768891075</v>
       </c>
       <c r="E23">
-        <v>1.043158510506601</v>
+        <v>1.012952508052168</v>
       </c>
       <c r="F23">
-        <v>1.053991882057767</v>
+        <v>1.021132849188545</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039094612435052</v>
+        <v>1.043473380332877</v>
       </c>
       <c r="J23">
-        <v>1.040551372813399</v>
+        <v>1.025798968127233</v>
       </c>
       <c r="K23">
-        <v>1.047224734386289</v>
+        <v>1.034032197786993</v>
       </c>
       <c r="L23">
-        <v>1.046772424573593</v>
+        <v>1.027964694539022</v>
       </c>
       <c r="M23">
-        <v>1.057565830198769</v>
+        <v>1.035993575847385</v>
       </c>
       <c r="N23">
-        <v>1.017453981179451</v>
+        <v>1.012400293295245</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03499000669665</v>
+        <v>1.001447890073102</v>
       </c>
       <c r="D24">
-        <v>1.044530785364074</v>
+        <v>1.023590442094644</v>
       </c>
       <c r="E24">
-        <v>1.044181804993099</v>
+        <v>1.01776026376746</v>
       </c>
       <c r="F24">
-        <v>1.055134939742427</v>
+        <v>1.026476936598317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0393458831145</v>
+        <v>1.04511343581965</v>
       </c>
       <c r="J24">
-        <v>1.041186358829694</v>
+        <v>1.028890318349181</v>
       </c>
       <c r="K24">
-        <v>1.047871344717987</v>
+        <v>1.037215572248617</v>
       </c>
       <c r="L24">
-        <v>1.047523560825435</v>
+        <v>1.031482506196106</v>
       </c>
       <c r="M24">
-        <v>1.058439557364114</v>
+        <v>1.040054511958947</v>
       </c>
       <c r="N24">
-        <v>1.017666579399363</v>
+        <v>1.013440564009566</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03633414903054</v>
+        <v>1.008096332810453</v>
       </c>
       <c r="D25">
-        <v>1.045599792165277</v>
+        <v>1.028611368984538</v>
       </c>
       <c r="E25">
-        <v>1.0453745103771</v>
+        <v>1.023187658872264</v>
       </c>
       <c r="F25">
-        <v>1.056467234319994</v>
+        <v>1.032507895081999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039633795592852</v>
+        <v>1.046922038629374</v>
       </c>
       <c r="J25">
-        <v>1.041923740252614</v>
+        <v>1.032354261758312</v>
       </c>
       <c r="K25">
-        <v>1.048621838658971</v>
+        <v>1.04078119209899</v>
       </c>
       <c r="L25">
-        <v>1.048397250615456</v>
+        <v>1.035436372617289</v>
       </c>
       <c r="M25">
-        <v>1.059456198127276</v>
+        <v>1.044621688916059</v>
       </c>
       <c r="N25">
-        <v>1.01791332270132</v>
+        <v>1.014605971188942</v>
       </c>
     </row>
   </sheetData>
